--- a/utilityscripts/GEBMoves.xlsx
+++ b/utilityscripts/GEBMoves.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Games\Minecraft Coding\SimpleTMs\utilityscripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4A0C63-BC38-40BF-9DE0-20816FC0F269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40680D7F-B8CB-46C8-B732-08F5CB9B8649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4485" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{31BD05D1-1129-4BFA-91FD-1CE4AA04885D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{31BD05D1-1129-4BFA-91FD-1CE4AA04885D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -713,9 +713,6 @@
     <t>dejavu</t>
   </si>
   <si>
-    <t>focused ram</t>
-  </si>
-  <si>
     <t>gravitywave</t>
   </si>
   <si>
@@ -4035,13 +4032,16 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>focusedram</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4064,12 +4064,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -4344,7 +4338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4450,9 +4444,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4788,10 +4779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39221369-008E-4220-A47C-F7FF1F69881E}">
-  <dimension ref="A1:D650"/>
+  <dimension ref="A1:D649"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A202" workbookViewId="0">
+      <selection activeCell="E210" sqref="E210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.42578125" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4807,7 +4798,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="35" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4821,7 +4812,7 @@
         <v>4</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4835,7 +4826,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4849,7 +4840,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4863,7 +4854,7 @@
         <v>8</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4877,7 +4868,7 @@
         <v>10</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4891,7 +4882,7 @@
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4905,7 +4896,7 @@
         <v>10</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4919,7 +4910,7 @@
         <v>10</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4933,7 +4924,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4947,7 +4938,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4961,7 +4952,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4975,7 +4966,7 @@
         <v>8</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4989,7 +4980,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5003,7 +4994,7 @@
         <v>10</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5017,7 +5008,7 @@
         <v>4</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5031,7 +5022,7 @@
         <v>8</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5045,7 +5036,7 @@
         <v>4</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5059,7 +5050,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5073,7 +5064,7 @@
         <v>4</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5087,7 +5078,7 @@
         <v>8</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5101,7 +5092,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5115,7 +5106,7 @@
         <v>4</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5129,7 +5120,7 @@
         <v>8</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5143,7 +5134,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5157,7 +5148,7 @@
         <v>4</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5171,7 +5162,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5185,7 +5176,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5199,7 +5190,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5213,7 +5204,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5227,7 +5218,7 @@
         <v>4</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5241,7 +5232,7 @@
         <v>4</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5255,7 +5246,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5269,7 +5260,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5283,7 +5274,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5297,7 +5288,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5311,7 +5302,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5325,7 +5316,7 @@
         <v>4</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5339,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5353,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5367,7 +5358,7 @@
         <v>10</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5381,7 +5372,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5395,7 +5386,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5409,7 +5400,7 @@
         <v>4</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5423,7 +5414,7 @@
         <v>4</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5437,7 +5428,7 @@
         <v>4</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5451,7 +5442,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5465,7 +5456,7 @@
         <v>10</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5479,7 +5470,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5493,7 +5484,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5507,7 +5498,7 @@
         <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5521,7 +5512,7 @@
         <v>4</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5535,7 +5526,7 @@
         <v>8</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5549,7 +5540,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5563,7 +5554,7 @@
         <v>4</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5577,7 +5568,7 @@
         <v>4</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5591,7 +5582,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5605,7 +5596,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5619,7 +5610,7 @@
         <v>4</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5633,7 +5624,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5647,7 +5638,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5661,7 +5652,7 @@
         <v>8</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5675,7 +5666,7 @@
         <v>8</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5689,7 +5680,7 @@
         <v>4</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5703,7 +5694,7 @@
         <v>4</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5717,7 +5708,7 @@
         <v>4</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5731,7 +5722,7 @@
         <v>4</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5745,7 +5736,7 @@
         <v>4</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5759,7 +5750,7 @@
         <v>4</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5773,7 +5764,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5787,7 +5778,7 @@
         <v>4</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5801,7 +5792,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5815,7 +5806,7 @@
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="74" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5829,7 +5820,7 @@
         <v>4</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5843,7 +5834,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="76" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5857,7 +5848,7 @@
         <v>8</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="77" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5871,7 +5862,7 @@
         <v>4</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="78" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5885,7 +5876,7 @@
         <v>4</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="79" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5899,7 +5890,7 @@
         <v>4</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="80" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5913,7 +5904,7 @@
         <v>4</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5927,7 +5918,7 @@
         <v>4</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5941,7 +5932,7 @@
         <v>4</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5955,7 +5946,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5969,7 +5960,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="85" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5983,7 +5974,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="4" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="86" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5997,7 +5988,7 @@
         <v>10</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="87" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6011,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="88" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6025,7 +6016,7 @@
         <v>4</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="89" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6039,7 +6030,7 @@
         <v>8</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6053,7 +6044,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6067,7 +6058,7 @@
         <v>8</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6081,7 +6072,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6095,7 +6086,7 @@
         <v>10</v>
       </c>
       <c r="D93" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6109,7 +6100,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6123,7 +6114,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6137,7 +6128,7 @@
         <v>10</v>
       </c>
       <c r="D96" s="4" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6151,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="4" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6165,7 +6156,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6179,7 +6170,7 @@
         <v>10</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6193,7 +6184,7 @@
         <v>4</v>
       </c>
       <c r="D100" s="4" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6207,7 +6198,7 @@
         <v>10</v>
       </c>
       <c r="D101" s="4" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6221,7 +6212,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="4" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6235,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="D103" s="4" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6249,7 +6240,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6263,7 +6254,7 @@
         <v>4</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6277,7 +6268,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6291,7 +6282,7 @@
         <v>4</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6305,7 +6296,7 @@
         <v>4</v>
       </c>
       <c r="D108" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6319,7 +6310,7 @@
         <v>4</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6333,7 +6324,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6347,7 +6338,7 @@
         <v>10</v>
       </c>
       <c r="D111" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6361,7 +6352,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6375,7 +6366,7 @@
         <v>4</v>
       </c>
       <c r="D113" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6389,7 +6380,7 @@
         <v>8</v>
       </c>
       <c r="D114" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6403,7 +6394,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6417,7 +6408,7 @@
         <v>4</v>
       </c>
       <c r="D116" s="4" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6431,7 +6422,7 @@
         <v>8</v>
       </c>
       <c r="D117" s="4" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6445,7 +6436,7 @@
         <v>8</v>
       </c>
       <c r="D118" s="4" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6459,7 +6450,7 @@
         <v>4</v>
       </c>
       <c r="D119" s="4" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6473,7 +6464,7 @@
         <v>10</v>
       </c>
       <c r="D120" s="4" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6487,7 +6478,7 @@
         <v>8</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6501,7 +6492,7 @@
         <v>4</v>
       </c>
       <c r="D122" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6515,7 +6506,7 @@
         <v>4</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6529,7 +6520,7 @@
         <v>10</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6543,7 +6534,7 @@
         <v>4</v>
       </c>
       <c r="D125" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6557,7 +6548,7 @@
         <v>10</v>
       </c>
       <c r="D126" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6571,7 +6562,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6585,7 +6576,7 @@
         <v>4</v>
       </c>
       <c r="D128" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6599,7 +6590,7 @@
         <v>8</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6613,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6627,7 +6618,7 @@
         <v>10</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6641,7 +6632,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6655,7 +6646,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6669,7 +6660,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6683,7 +6674,7 @@
         <v>4</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6697,7 +6688,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="4" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6711,7 +6702,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="4" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6725,7 +6716,7 @@
         <v>4</v>
       </c>
       <c r="D138" s="4" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6739,7 +6730,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="4" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6753,7 +6744,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="4" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6767,7 +6758,7 @@
         <v>10</v>
       </c>
       <c r="D141" s="4" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6781,7 +6772,7 @@
         <v>10</v>
       </c>
       <c r="D142" s="4" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="143" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6795,7 +6786,7 @@
         <v>10</v>
       </c>
       <c r="D143" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="144" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6809,7 +6800,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="145" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6823,7 +6814,7 @@
         <v>4</v>
       </c>
       <c r="D145" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6837,7 +6828,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6851,7 +6842,7 @@
         <v>4</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6865,7 +6856,7 @@
         <v>4</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="149" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6879,7 +6870,7 @@
         <v>10</v>
       </c>
       <c r="D149" s="4" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6893,7 +6884,7 @@
         <v>4</v>
       </c>
       <c r="D150" s="4" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6907,7 +6898,7 @@
         <v>8</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6921,7 +6912,7 @@
         <v>4</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="153" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6935,7 +6926,7 @@
         <v>8</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="154" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6949,7 +6940,7 @@
         <v>4</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="155" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6963,7 +6954,7 @@
         <v>4</v>
       </c>
       <c r="D155" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="156" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6977,7 +6968,7 @@
         <v>4</v>
       </c>
       <c r="D156" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="157" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -6991,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="158" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7005,7 +6996,7 @@
         <v>10</v>
       </c>
       <c r="D158" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7019,7 +7010,7 @@
         <v>8</v>
       </c>
       <c r="D159" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="160" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7033,7 +7024,7 @@
         <v>4</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7047,7 +7038,7 @@
         <v>4</v>
       </c>
       <c r="D161" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7061,7 +7052,7 @@
         <v>8</v>
       </c>
       <c r="D162" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="163" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7075,7 +7066,7 @@
         <v>10</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7089,7 +7080,7 @@
         <v>4</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7103,7 +7094,7 @@
         <v>4</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7117,7 +7108,7 @@
         <v>10</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7131,7 +7122,7 @@
         <v>4</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7145,7 +7136,7 @@
         <v>4</v>
       </c>
       <c r="D168" s="4" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7159,7 +7150,7 @@
         <v>8</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7173,7 +7164,7 @@
         <v>8</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="171" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7187,7 +7178,7 @@
         <v>8</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7201,7 +7192,7 @@
         <v>8</v>
       </c>
       <c r="D172" s="4" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="173" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7215,7 +7206,7 @@
         <v>8</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="174" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7229,7 +7220,7 @@
         <v>8</v>
       </c>
       <c r="D174" s="4" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="175" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7243,7 +7234,7 @@
         <v>4</v>
       </c>
       <c r="D175" s="4" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="176" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7257,7 +7248,7 @@
         <v>10</v>
       </c>
       <c r="D176" s="4" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="177" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7271,7 +7262,7 @@
         <v>4</v>
       </c>
       <c r="D177" s="4" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="178" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7285,7 +7276,7 @@
         <v>8</v>
       </c>
       <c r="D178" s="4" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="179" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7299,7 +7290,7 @@
         <v>4</v>
       </c>
       <c r="D179" s="4" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="180" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7313,7 +7304,7 @@
         <v>8</v>
       </c>
       <c r="D180" s="4" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="181" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7327,7 +7318,7 @@
         <v>4</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="182" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7341,7 +7332,7 @@
         <v>4</v>
       </c>
       <c r="D182" s="4" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="183" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7355,7 +7346,7 @@
         <v>8</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="184" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7369,7 +7360,7 @@
         <v>4</v>
       </c>
       <c r="D184" s="4" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="185" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7383,7 +7374,7 @@
         <v>10</v>
       </c>
       <c r="D185" s="4" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="186" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7397,7 +7388,7 @@
         <v>4</v>
       </c>
       <c r="D186" s="4" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="187" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7411,7 +7402,7 @@
         <v>4</v>
       </c>
       <c r="D187" s="4" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="188" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7425,7 +7416,7 @@
         <v>8</v>
       </c>
       <c r="D188" s="4" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="189" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7439,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="D189" s="4" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="190" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7453,7 +7444,7 @@
         <v>8</v>
       </c>
       <c r="D190" s="4" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="191" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7467,7 +7458,7 @@
         <v>8</v>
       </c>
       <c r="D191" s="4" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="192" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7481,7 +7472,7 @@
         <v>8</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="193" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7495,7 +7486,7 @@
         <v>4</v>
       </c>
       <c r="D193" s="4" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="194" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7509,7 +7500,7 @@
         <v>10</v>
       </c>
       <c r="D194" s="4" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="195" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7523,7 +7514,7 @@
         <v>8</v>
       </c>
       <c r="D195" s="4" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="196" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7537,7 +7528,7 @@
         <v>8</v>
       </c>
       <c r="D196" s="4" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="197" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7551,7 +7542,7 @@
         <v>8</v>
       </c>
       <c r="D197" s="4" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="198" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7565,7 +7556,7 @@
         <v>4</v>
       </c>
       <c r="D198" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="199" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7579,7 +7570,7 @@
         <v>8</v>
       </c>
       <c r="D199" s="4" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="200" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7593,7 +7584,7 @@
         <v>4</v>
       </c>
       <c r="D200" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="201" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7607,7 +7598,7 @@
         <v>4</v>
       </c>
       <c r="D201" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="202" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7621,7 +7612,7 @@
         <v>4</v>
       </c>
       <c r="D202" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="203" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7635,7 +7626,7 @@
         <v>10</v>
       </c>
       <c r="D203" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="204" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7649,7 +7640,7 @@
         <v>4</v>
       </c>
       <c r="D204" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="205" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7663,7 +7654,7 @@
         <v>4</v>
       </c>
       <c r="D205" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="206" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7677,7 +7668,7 @@
         <v>4</v>
       </c>
       <c r="D206" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="207" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7691,7 +7682,7 @@
         <v>4</v>
       </c>
       <c r="D207" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="208" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7705,7 +7696,7 @@
         <v>10</v>
       </c>
       <c r="D208" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="209" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -7719,12 +7710,12 @@
         <v>4</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="210" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
-        <v>225</v>
+        <v>1332</v>
       </c>
       <c r="B210" s="15" t="s">
         <v>219</v>
@@ -7733,12 +7724,12 @@
         <v>8</v>
       </c>
       <c r="D210" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="211" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B211" s="15" t="s">
         <v>219</v>
@@ -7747,12 +7738,12 @@
         <v>4</v>
       </c>
       <c r="D211" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="212" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B212" s="15" t="s">
         <v>219</v>
@@ -7761,12 +7752,12 @@
         <v>4</v>
       </c>
       <c r="D212" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="213" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B213" s="15" t="s">
         <v>219</v>
@@ -7775,12 +7766,12 @@
         <v>4</v>
       </c>
       <c r="D213" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="214" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B214" s="15" t="s">
         <v>219</v>
@@ -7789,12 +7780,12 @@
         <v>4</v>
       </c>
       <c r="D214" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="215" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B215" s="15" t="s">
         <v>219</v>
@@ -7803,12 +7794,12 @@
         <v>4</v>
       </c>
       <c r="D215" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="216" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B216" s="15" t="s">
         <v>219</v>
@@ -7817,12 +7808,12 @@
         <v>4</v>
       </c>
       <c r="D216" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="217" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B217" s="15" t="s">
         <v>219</v>
@@ -7831,12 +7822,12 @@
         <v>4</v>
       </c>
       <c r="D217" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="218" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B218" s="15" t="s">
         <v>219</v>
@@ -7845,12 +7836,12 @@
         <v>4</v>
       </c>
       <c r="D218" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="219" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B219" s="15" t="s">
         <v>219</v>
@@ -7859,12 +7850,12 @@
         <v>4</v>
       </c>
       <c r="D219" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="220" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B220" s="15" t="s">
         <v>219</v>
@@ -7873,12 +7864,12 @@
         <v>4</v>
       </c>
       <c r="D220" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="221" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B221" s="15" t="s">
         <v>219</v>
@@ -7887,12 +7878,12 @@
         <v>4</v>
       </c>
       <c r="D221" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="222" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B222" s="15" t="s">
         <v>219</v>
@@ -7901,12 +7892,12 @@
         <v>10</v>
       </c>
       <c r="D222" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="223" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B223" s="15" t="s">
         <v>219</v>
@@ -7915,5975 +7906,5972 @@
         <v>4</v>
       </c>
       <c r="D223" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="224" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B224" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C224" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="225" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B225" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C225" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="226" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B226" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C226" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D226" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="227" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B227" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C227" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="228" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B228" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C228" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="229" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B229" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C229" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D229" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="230" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B230" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C230" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D230" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="231" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B231" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C231" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="232" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B232" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C232" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="233" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B233" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C233" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D233" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="234" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B234" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C234" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="235" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B235" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C235" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D235" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="236" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B236" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C236" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="237" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B237" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C237" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="238" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B238" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C238" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D238" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="239" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B239" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C239" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D239" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="240" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C240" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D240" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="241" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C241" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D241" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="242" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B242" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C242" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D242" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="243" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B243" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C243" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D243" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="244" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B244" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C244" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D244" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="245" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C245" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="246" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C246" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D246" s="4" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="247" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B247" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C247" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D247" s="4" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="248" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B248" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C248" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D248" s="4" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="249" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B249" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C249" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D249" s="4" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="250" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B250" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C250" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D250" s="4" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="251" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B251" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C251" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D251" s="4" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="252" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B252" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C252" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D252" s="4" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="253" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B253" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C253" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="4" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="254" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B254" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C254" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D254" s="4" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="255" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B255" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="4" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="256" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B256" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C256" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D256" s="4" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="257" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B257" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C257" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D257" s="4" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="258" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B258" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C258" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D258" s="4" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="259" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B259" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C259" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D259" s="4" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="260" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B260" s="17" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C260" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="4" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="261" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B261" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C261" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="4" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="262" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B262" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C262" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="4" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="263" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B263" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C263" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D263" s="4" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="264" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B264" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C264" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D264" s="4" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="265" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B265" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C265" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D265" s="4" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="266" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B266" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C266" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D266" s="4" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="267" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B267" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C267" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D267" s="4" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="268" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B268" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C268" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="4" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="269" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B269" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C269" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D269" s="4" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="270" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B270" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C270" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D270" s="4" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="271" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B271" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C271" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D271" s="4" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="272" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B272" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C272" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D272" s="4" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="273" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B273" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C273" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D273" s="4" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="274" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B274" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C274" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D274" s="4" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="275" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B275" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C275" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D275" s="4" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="276" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B276" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C276" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D276" s="4" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="277" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B277" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C277" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D277" s="4" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="278" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B278" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C278" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D278" s="4" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="279" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B279" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C279" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D279" s="4" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="280" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B280" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C280" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="4" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="281" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B281" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C281" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D281" s="4" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="282" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B282" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C282" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="4" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="283" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B283" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C283" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="4" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="284" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B284" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C284" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="4" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="285" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B285" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C285" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D285" s="4" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="286" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B286" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C286" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D286" s="4" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B287" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C287" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D287" s="4" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="288" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B288" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C288" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D288" s="4" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="289" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B289" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C289" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="4" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="290" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B290" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C290" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D290" s="4" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="291" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B291" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C291" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="4" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="292" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B292" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C292" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D292" s="4" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
     </row>
     <row r="293" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B293" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C293" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D293" s="4" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
     </row>
     <row r="294" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B294" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C294" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D294" s="4" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="295" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B295" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C295" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D295" s="4" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="296" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C296" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D296" s="4" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="297" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C297" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D297" s="4" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
     </row>
     <row r="298" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C298" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D298" s="4" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="299" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B299" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C299" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D299" s="4" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
     </row>
     <row r="300" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B300" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C300" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D300" s="4" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
     </row>
     <row r="301" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B301" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C301" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D301" s="4" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
     </row>
     <row r="302" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B302" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C302" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="4" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
     </row>
     <row r="303" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B303" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C303" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D303" s="4" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
     </row>
     <row r="304" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B304" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C304" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D304" s="4" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
     </row>
     <row r="305" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B305" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C305" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="4" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
     </row>
     <row r="306" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B306" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C306" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D306" s="4" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="307" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B307" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C307" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="4" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="308" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B308" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C308" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D308" s="4" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="309" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B309" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C309" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="4" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
     <row r="310" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B310" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C310" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D310" s="4" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
     </row>
     <row r="311" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B311" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C311" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D311" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
     </row>
     <row r="312" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B312" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C312" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D312" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B313" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C313" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D313" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B314" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C314" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D314" s="4" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B315" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C315" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D315" s="4" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B316" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C316" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D316" s="4" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B317" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C317" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D317" s="4" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
     </row>
     <row r="318" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B318" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C318" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D318" s="4" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
     </row>
     <row r="319" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B319" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C319" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D319" s="4" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="320" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B320" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C320" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D320" s="4" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B321" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C321" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D321" s="4" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="322" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B322" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C322" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D322" s="4" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="323" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B323" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C323" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D323" s="4" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="324" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B324" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C324" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D324" s="4" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="325" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B325" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C325" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D325" s="4" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="326" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B326" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C326" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D326" s="4" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="327" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B327" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C327" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D327" s="4" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="328" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B328" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C328" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D328" s="4" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="329" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B329" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C329" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="4" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="330" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B330" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C330" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D330" s="4" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="331" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B331" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C331" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D331" s="4" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="332" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B332" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C332" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D332" s="4" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="333" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B333" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C333" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D333" s="4" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="334" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B334" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C334" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D334" s="4" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="335" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B335" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C335" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D335" s="4" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="336" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B336" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C336" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D336" s="4" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="337" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B337" s="20" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C337" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D337" s="4" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="338" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="4" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B338" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C338" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D338" s="4" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="339" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B339" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C339" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D339" s="4" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="340" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B340" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C340" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D340" s="4" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="341" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A341" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B341" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C341" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D341" s="4" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="342" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B342" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C342" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D342" s="4" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="343" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B343" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C343" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D343" s="4" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="344" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B344" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C344" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D344" s="4" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="345" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B345" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C345" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D345" s="4" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="346" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B346" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C346" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D346" s="4" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="347" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B347" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C347" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D347" s="4" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="348" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B348" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C348" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D348" s="4" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="349" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="4" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B349" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C349" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D349" s="4" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="350" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B350" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C350" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D350" s="4" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="351" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B351" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C351" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D351" s="4" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="352" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B352" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C352" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D352" s="4" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="353" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B353" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C353" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D353" s="4" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="354" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B354" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C354" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D354" s="4" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="355" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B355" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C355" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D355" s="4" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="356" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="4" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B356" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C356" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D356" s="4" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="357" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B357" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C357" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D357" s="4" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="358" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="4" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B358" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C358" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D358" s="4" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="359" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A359" s="4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B359" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C359" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D359" s="4" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="360" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A360" s="4" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B360" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C360" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D360" s="4" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="361" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="4" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B361" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C361" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D361" s="4" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="362" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="4" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B362" s="21" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C362" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D362" s="4" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="363" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A363" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B363" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C363" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D363" s="4" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="364" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="4" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B364" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C364" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D364" s="4" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="365" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A365" s="4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B365" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C365" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D365" s="4" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="366" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A366" s="4" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B366" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C366" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D366" s="4" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="367" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A367" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B367" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C367" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D367" s="4" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="368" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A368" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B368" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C368" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D368" s="4" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="369" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A369" s="4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B369" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C369" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D369" s="4" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="370" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A370" s="4" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B370" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C370" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D370" s="4" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="371" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A371" s="4" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B371" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C371" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D371" s="4" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="372" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A372" s="4" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B372" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C372" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D372" s="4" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="373" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="4" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B373" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C373" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D373" s="4" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="374" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A374" s="4" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B374" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C374" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D374" s="4" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="375" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A375" s="4" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B375" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C375" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D375" s="4" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A376" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B376" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C376" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D376" s="4" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="377" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A377" s="4" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B377" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C377" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D377" s="4" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="378" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A378" s="4" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B378" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C378" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D378" s="4" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="379" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A379" s="4" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B379" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C379" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D379" s="4" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="380" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A380" s="4" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B380" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C380" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D380" s="4" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="381" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B381" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C381" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D381" s="4" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="382" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="4" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B382" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C382" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D382" s="4" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="383" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A383" s="4" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B383" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C383" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D383" s="4" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="384" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A384" s="4" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B384" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C384" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D384" s="4" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="385" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A385" s="4" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B385" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C385" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D385" s="4" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="386" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A386" s="4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B386" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C386" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D386" s="4" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="387" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A387" s="4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B387" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C387" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D387" s="4" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="388" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A388" s="4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B388" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C388" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D388" s="4" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="389" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A389" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B389" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C389" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D389" s="4" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="390" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A390" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B390" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C390" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D390" s="4" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="391" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A391" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B391" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C391" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D391" s="4" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="392" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="4" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B392" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C392" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D392" s="4" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="393" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A393" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B393" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C393" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D393" s="4" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="394" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A394" s="4" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B394" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C394" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D394" s="4" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="395" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A395" s="4" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B395" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C395" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D395" s="4" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="396" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A396" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B396" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C396" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D396" s="4" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="397" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A397" s="4" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B397" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C397" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D397" s="4" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="398" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A398" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B398" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C398" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D398" s="4" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="399" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A399" s="4" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B399" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C399" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D399" s="4" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="400" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A400" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B400" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C400" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D400" s="4" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="401" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A401" s="4" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B401" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C401" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D401" s="4" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="402" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B402" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C402" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D402" s="4" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="403" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A403" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B403" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C403" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D403" s="4" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="404" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A404" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B404" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C404" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D404" s="4" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="405" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A405" s="4" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B405" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C405" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D405" s="4" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="406" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B406" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C406" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D406" s="4" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="407" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="4" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B407" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C407" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D407" s="4" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="408" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="4" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B408" s="23" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C408" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D408" s="4" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="409" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="4" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B409" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C409" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D409" s="4" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="410" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="4" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B410" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C410" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D410" s="4" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="411" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B411" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C411" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D411" s="4" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="412" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A412" s="4" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B412" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C412" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D412" s="4" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="413" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A413" s="4" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B413" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C413" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D413" s="4" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="414" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A414" s="4" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B414" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C414" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D414" s="4" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="415" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A415" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B415" s="24" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="C415" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D415" s="4" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="416" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A416" s="4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B416" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C416" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D416" s="4" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="417" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A417" s="4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B417" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C417" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D417" s="4" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="418" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A418" s="4" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B418" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C418" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D418" s="4" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="419" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A419" s="4" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B419" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C419" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D419" s="4" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="420" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A420" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B420" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C420" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D420" s="4" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="421" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A421" s="4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B421" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C421" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D421" s="4" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="422" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A422" s="4" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B422" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C422" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D422" s="4" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="423" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A423" s="4" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B423" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C423" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D423" s="4" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="424" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A424" s="4" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B424" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C424" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D424" s="4" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="425" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A425" s="4" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B425" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C425" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D425" s="4" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="426" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="4" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B426" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C426" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D426" s="4" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="427" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A427" s="4" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B427" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C427" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D427" s="4" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="428" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A428" s="4" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B428" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C428" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D428" s="4" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="429" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A429" s="4" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B429" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C429" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D429" s="4" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="430" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A430" s="4" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B430" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C430" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D430" s="4" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="431" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A431" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B431" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C431" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D431" s="4" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="432" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A432" s="4" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B432" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C432" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D432" s="4" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="433" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A433" s="4" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B433" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C433" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D433" s="4" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="434" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A434" s="4" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B434" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C434" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D434" s="4" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="435" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A435" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B435" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C435" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D435" s="4" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="436" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A436" s="4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B436" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C436" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D436" s="4" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="437" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A437" s="4" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B437" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C437" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D437" s="4" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="438" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A438" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B438" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C438" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D438" s="4" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="439" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A439" s="4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B439" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C439" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D439" s="4" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="440" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A440" s="4" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B440" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C440" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D440" s="4" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="441" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A441" s="4" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B441" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C441" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D441" s="4" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="442" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A442" s="4" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B442" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C442" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D442" s="4" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="443" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A443" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B443" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C443" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D443" s="4" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="444" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="4" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B444" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C444" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D444" s="4" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="445" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A445" s="4" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B445" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C445" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D445" s="4" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="446" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A446" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B446" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C446" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D446" s="4" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="447" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A447" s="4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B447" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C447" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D447" s="4" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="448" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A448" s="4" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B448" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C448" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D448" s="4" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="449" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A449" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B449" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C449" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D449" s="4" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="450" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A450" s="4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B450" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C450" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D450" s="4" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="451" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A451" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B451" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C451" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D451" s="4" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="452" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A452" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B452" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C452" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D452" s="4" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="453" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A453" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B453" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C453" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D453" s="4" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="454" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A454" s="4" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B454" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C454" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D454" s="4" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="455" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A455" s="4" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B455" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C455" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D455" s="4" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="456" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B456" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C456" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D456" s="4" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="457" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A457" s="4" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B457" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C457" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D457" s="4" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="458" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A458" s="4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B458" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C458" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D458" s="4" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="459" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A459" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B459" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C459" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D459" s="4" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="460" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A460" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B460" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C460" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D460" s="4" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="461" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A461" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B461" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C461" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D461" s="4" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="462" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A462" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B462" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C462" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D462" s="4" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="463" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A463" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B463" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C463" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D463" s="4" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="464" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A464" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B464" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C464" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D464" s="4" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="465" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A465" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B465" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C465" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D465" s="4" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="466" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A466" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B466" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C466" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D466" s="4" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="467" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A467" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B467" s="26" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C467" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D467" s="4" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="468" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A468" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B468" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C468" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D468" s="4" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="469" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A469" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B469" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C469" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D469" s="4" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="470" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B470" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C470" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D470" s="4" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="471" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A471" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B471" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C471" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D471" s="4" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="472" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A472" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B472" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C472" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D472" s="4" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="473" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A473" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B473" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C473" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D473" s="4" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="474" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A474" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B474" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C474" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D474" s="4" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="475" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A475" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B475" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C475" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D475" s="4" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="476" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A476" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B476" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C476" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D476" s="4" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="477" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A477" s="4" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B477" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C477" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D477" s="4" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="478" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A478" s="4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B478" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C478" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D478" s="4" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="479" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A479" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B479" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C479" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D479" s="4" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="480" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A480" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B480" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C480" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D480" s="4" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="481" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A481" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B481" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C481" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D481" s="4" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="482" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A482" s="4" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B482" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C482" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D482" s="4" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="483" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B483" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C483" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D483" s="4" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="484" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A484" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B484" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C484" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D484" s="4" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="485" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A485" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B485" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C485" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D485" s="4" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="486" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A486" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B486" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C486" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D486" s="4" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="487" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A487" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B487" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C487" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D487" s="4" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="488" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A488" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B488" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C488" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D488" s="4" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="489" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A489" s="4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B489" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C489" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D489" s="4" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="490" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A490" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B490" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C490" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D490" s="4" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="491" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A491" s="4" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B491" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C491" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D491" s="4" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="492" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A492" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B492" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C492" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D492" s="4" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="493" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A493" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B493" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C493" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D493" s="4" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="494" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A494" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B494" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C494" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D494" s="4" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="495" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A495" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B495" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C495" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D495" s="4" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="496" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B496" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C496" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D496" s="4" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="497" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A497" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B497" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C497" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D497" s="4" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="498" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A498" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B498" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C498" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D498" s="4" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="499" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A499" s="4" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B499" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C499" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D499" s="4" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="500" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A500" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B500" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C500" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D500" s="4" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="501" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A501" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B501" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C501" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D501" s="4" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="502" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A502" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B502" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C502" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D502" s="4" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="503" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A503" s="4" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B503" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C503" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D503" s="4" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="504" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A504" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B504" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C504" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D504" s="4" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="505" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A505" s="4" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B505" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C505" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D505" s="4" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="506" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A506" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B506" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C506" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D506" s="4" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="507" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A507" s="4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B507" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C507" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D507" s="4" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="508" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A508" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B508" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C508" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D508" s="4" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="509" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A509" s="4" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B509" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C509" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D509" s="4" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="510" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A510" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B510" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C510" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D510" s="4" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="511" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A511" s="4" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B511" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C511" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D511" s="4" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="512" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A512" s="4" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B512" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C512" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D512" s="4" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="513" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A513" s="4" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B513" s="27" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C513" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D513" s="4" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="514" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A514" s="4" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B514" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C514" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D514" s="4" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="515" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A515" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B515" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C515" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D515" s="4" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="516" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B516" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C516" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D516" s="4" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="517" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A517" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B517" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C517" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D517" s="4" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="518" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A518" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B518" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C518" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D518" s="4" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="519" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A519" s="4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B519" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C519" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D519" s="4" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="520" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A520" s="4" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B520" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C520" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D520" s="4" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="521" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A521" s="4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B521" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C521" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D521" s="4" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="522" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A522" s="4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B522" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C522" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D522" s="4" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="523" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A523" s="4" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B523" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C523" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D523" s="4" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="524" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A524" s="4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B524" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C524" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D524" s="4" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="525" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A525" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B525" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C525" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D525" s="4" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="526" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B526" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C526" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D526" s="4" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="527" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A527" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B527" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C527" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D527" s="4" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="528" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A528" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B528" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C528" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D528" s="4" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="529" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A529" s="4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B529" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C529" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D529" s="4" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="530" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A530" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B530" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C530" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D530" s="4" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="531" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A531" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B531" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C531" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D531" s="4" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="532" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A532" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B532" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C532" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D532" s="4" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="533" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A533" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B533" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C533" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D533" s="4" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="534" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A534" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B534" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C534" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D534" s="4" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="535" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A535" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B535" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C535" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D535" s="4" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="536" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A536" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B536" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C536" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D536" s="4" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="537" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A537" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B537" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C537" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D537" s="4" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="538" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A538" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B538" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C538" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D538" s="4" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="539" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A539" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B539" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C539" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D539" s="4" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="540" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B540" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C540" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D540" s="4" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="541" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A541" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B541" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C541" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D541" s="4" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="542" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A542" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B542" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C542" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D542" s="4" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="543" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A543" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B543" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C543" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D543" s="4" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="544" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A544" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B544" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C544" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D544" s="4" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="545" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A545" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B545" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C545" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D545" s="4" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="546" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A546" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B546" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C546" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D546" s="4" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="547" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B547" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C547" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D547" s="4" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="548" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A548" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B548" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C548" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D548" s="4" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="549" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A549" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B549" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C549" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D549" s="4" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="550" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A550" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B550" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C550" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D550" s="4" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="551" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A551" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B551" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C551" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D551" s="4" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="552" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A552" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B552" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C552" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D552" s="4" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="553" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A553" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B553" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C553" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D553" s="4" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="554" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B554" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C554" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D554" s="4" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="555" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A555" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B555" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C555" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D555" s="4" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="556" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A556" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B556" s="29" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C556" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D556" s="4" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="557" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A557" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B557" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C557" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D557" s="4" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="558" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A558" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B558" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C558" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D558" s="4" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="559" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A559" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B559" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C559" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D559" s="4" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="560" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B560" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C560" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D560" s="4" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="561" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A561" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B561" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C561" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D561" s="4" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="562" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A562" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B562" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C562" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D562" s="4" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="563" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A563" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B563" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C563" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D563" s="4" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="564" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B564" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C564" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D564" s="4" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="565" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A565" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B565" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C565" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D565" s="4" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="566" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A566" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B566" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C566" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D566" s="4" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="567" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A567" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B567" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C567" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D567" s="4" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="568" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A568" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B568" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C568" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D568" s="4" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="569" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A569" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B569" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C569" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D569" s="4" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="570" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A570" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B570" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C570" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D570" s="4" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="571" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A571" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B571" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C571" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D571" s="4" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="572" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B572" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C572" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D572" s="4" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="573" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A573" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B573" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C573" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D573" s="4" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="574" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A574" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B574" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C574" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D574" s="4" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="575" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A575" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B575" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C575" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D575" s="4" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="576" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A576" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B576" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C576" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D576" s="4" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="577" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A577" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B577" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C577" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D577" s="4" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="578" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A578" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B578" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C578" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D578" s="4" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="579" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A579" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B579" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C579" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D579" s="4" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="580" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A580" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B580" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C580" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D580" s="4" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="581" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A581" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B581" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C581" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D581" s="4" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="582" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A582" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B582" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C582" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D582" s="4" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="583" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A583" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B583" s="30" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C583" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D583" s="4" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="584" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B584" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C584" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D584" s="4" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="585" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A585" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B585" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C585" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D585" s="4" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="586" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A586" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B586" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C586" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D586" s="4" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="587" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A587" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B587" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C587" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D587" s="4" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="588" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A588" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B588" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C588" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D588" s="4" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="589" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A589" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B589" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C589" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D589" s="4" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="590" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A590" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B590" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C590" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D590" s="4" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="591" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A591" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B591" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C591" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D591" s="4" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="592" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A592" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B592" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C592" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D592" s="4" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="593" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A593" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B593" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C593" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D593" s="4" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="594" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A594" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B594" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C594" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D594" s="4" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="595" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A595" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B595" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C595" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D595" s="4" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="596" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A596" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B596" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C596" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D596" s="4" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="597" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A597" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B597" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C597" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D597" s="4" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="598" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B598" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C598" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D598" s="4" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="599" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A599" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B599" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C599" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D599" s="4" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="600" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A600" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B600" s="31" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C600" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D600" s="4" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="601" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A601" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B601" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C601" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D601" s="4" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="602" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A602" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B602" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C602" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D602" s="4" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="603" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A603" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B603" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C603" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D603" s="4" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="604" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A604" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B604" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C604" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D604" s="4" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="605" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A605" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B605" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C605" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D605" s="4" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="606" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A606" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B606" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C606" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D606" s="4" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="607" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A607" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B607" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C607" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D607" s="4" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="608" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A608" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B608" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C608" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D608" s="4" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="609" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A609" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="B609" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C609" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D609" s="4" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="610" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A610" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="B610" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C610" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D610" s="4" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="611" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A611" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B611" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C611" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D611" s="4" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="612" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A612" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B612" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C612" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D612" s="4" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="613" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A613" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B613" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C613" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D613" s="4" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="614" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="B614" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C614" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D614" s="4" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="615" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A615" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="B615" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C615" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D615" s="4" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="616" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A616" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B616" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C616" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D616" s="4" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="617" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A617" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B617" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C617" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D617" s="4" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="618" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A618" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B618" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C618" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D618" s="4" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="619" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A619" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B619" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C619" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D619" s="4" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="620" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A620" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B620" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C620" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D620" s="4" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="621" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A621" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B621" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C621" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D621" s="4" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="622" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A622" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B622" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C622" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D622" s="4" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="623" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A623" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B623" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C623" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D623" s="4" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="624" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A624" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B624" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C624" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D624" s="4" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="625" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A625" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B625" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C625" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D625" s="4" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="626" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A626" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B626" s="32" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C626" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D626" s="4" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="627" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A627" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B627" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C627" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D627" s="4" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="628" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A628" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="B628" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C628" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D628" s="4" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="629" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A629" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B629" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C629" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D629" s="4" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="630" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A630" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B630" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C630" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D630" s="4" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="631" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A631" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B631" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C631" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D631" s="4" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="632" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B632" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C632" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="633" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A633" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B633" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C633" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D633" s="4" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="634" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A634" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B634" s="33" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C634" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D634" s="4" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="635" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A635" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B635" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C635" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D635" s="4" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="636" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A636" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B636" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C636" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D636" s="4" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="637" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A637" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B637" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C637" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D637" s="4" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="638" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A638" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B638" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C638" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D638" s="4" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="639" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B639" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C639" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D639" s="4" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="640" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A640" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B640" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C640" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D640" s="4" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="641" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B641" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C641" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D641" s="4" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="642" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A642" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B642" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C642" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D642" s="4" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="643" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B643" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C643" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D643" s="4" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="644" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A644" s="4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="B644" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C644" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D644" s="4" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="645" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A645" s="4" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="B645" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C645" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D645" s="4" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="646" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A646" s="4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="B646" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C646" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D646" s="4" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="647" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B647" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C647" s="4" t="s">
         <v>8</v>
       </c>
       <c r="D647" s="4" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="648" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A648" s="4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B648" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C648" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D648" s="4" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="649" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A649" s="4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B649" s="34" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C649" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D649" s="4" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D650" s="36"/>
+        <v>1330</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
